--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>742005.7359284345</v>
+        <v>754327.8394280799</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253917</v>
+        <v>12049526.89607446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.13461325</v>
+        <v>2713959.118571167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7058344.908916375</v>
+        <v>7584365.599403855</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>378.1190939012574</v>
+        <v>56.01975507850369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.1469410361726</v>
+        <v>213.8764542074657</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>356.3581629874922</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>245.1565386092493</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>265.5672156808878</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1136,16 +1138,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>308.0865680231105</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>172.9655610612152</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>149.7181052831735</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1379,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>194.1415787406864</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>351.1002525198032</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>325.7115518288055</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>135.1167527563793</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>74.02192820694653</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>147.6564773811755</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>93.92317772936461</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>145.7567452257928</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.3275881150121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2950,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>57.24387488545796</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170415</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.61444029309493</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>232.7273602614276</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.9668507205315</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>220.7738371448797</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3898,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>92.61264185836254</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>29.44742786185904</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>133.0773339931851</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>40.84698832683126</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.232415338029</v>
+        <v>988.0056192934837</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.232415338029</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.232415338029</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="E2" t="n">
-        <v>734.2554754858869</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="F2" t="n">
-        <v>734.2554754858869</v>
+        <v>135.9807074961841</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>701.0259602492056</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1374.82761136252</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M2" t="n">
-        <v>2048.629262475834</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>2048.629262475834</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2048.629262475834</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1985.418049674669</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.080779629559</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>644.9335448401225</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>644.9335448401225</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M3" t="n">
-        <v>644.9335448401225</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>1318.735195953437</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>730.7481311712208</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C4" t="n">
-        <v>558.7755680501368</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D4" t="n">
-        <v>558.7755680501368</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E4" t="n">
-        <v>392.5673622029904</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F4" t="n">
-        <v>220.7055879775508</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2064.726598204046</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T4" t="n">
-        <v>1821.387250429946</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U4" t="n">
-        <v>1821.387250429946</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V4" t="n">
-        <v>1664.673168575226</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W4" t="n">
-        <v>1389.820764747739</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X4" t="n">
-        <v>1147.256868193545</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.9140998832866</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>904.6419690734826</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C5" t="n">
-        <v>477.7412390867827</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D5" t="n">
-        <v>54.44861827178296</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E5" t="n">
-        <v>54.44861827178296</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F5" t="n">
-        <v>54.44861827178296</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>2821.980376839862</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392167</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T5" t="n">
-        <v>2501.505342633781</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U5" t="n">
-        <v>2501.505342633781</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="V5" t="n">
-        <v>2501.505342633781</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="W5" t="n">
-        <v>2141.547602242375</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="X5" t="n">
-        <v>1729.827603410122</v>
+        <v>3341.880544532054</v>
       </c>
       <c r="Y5" t="n">
-        <v>1324.490333365013</v>
+        <v>2936.543274486944</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J6" t="n">
-        <v>333.5927505132859</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K6" t="n">
-        <v>924.0776770816254</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="L6" t="n">
-        <v>1398.990771989513</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="M6" t="n">
-        <v>1398.990771989513</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="N6" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O6" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>894.0649040444501</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C7" t="n">
-        <v>722.0923409233661</v>
+        <v>130.402627966507</v>
       </c>
       <c r="D7" t="n">
-        <v>558.7755680501368</v>
+        <v>130.402627966507</v>
       </c>
       <c r="E7" t="n">
-        <v>392.5673622029904</v>
+        <v>130.402627966507</v>
       </c>
       <c r="F7" t="n">
-        <v>220.7055879775508</v>
+        <v>130.402627966507</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>130.402627966507</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>130.402627966507</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T7" t="n">
-        <v>1821.387250429946</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U7" t="n">
-        <v>1821.387250429946</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V7" t="n">
-        <v>1821.387250429946</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W7" t="n">
-        <v>1553.137537620968</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X7" t="n">
-        <v>1310.573641066774</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y7" t="n">
-        <v>1084.230872756516</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.812592479634</v>
+        <v>1665.664969750467</v>
       </c>
       <c r="C8" t="n">
-        <v>883.9118624929341</v>
+        <v>1238.764239763767</v>
       </c>
       <c r="D8" t="n">
-        <v>883.9118624929341</v>
+        <v>815.4716189487669</v>
       </c>
       <c r="E8" t="n">
-        <v>883.9118624929341</v>
+        <v>389.4946790966245</v>
       </c>
       <c r="F8" t="n">
-        <v>458.7876806823343</v>
+        <v>78.296125537927</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K8" t="n">
-        <v>583.4696253673028</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L8" t="n">
-        <v>1257.271276480617</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="M8" t="n">
-        <v>1931.072927593931</v>
+        <v>2125.322445862168</v>
       </c>
       <c r="N8" t="n">
-        <v>2604.874578707245</v>
+        <v>3088.97066285652</v>
       </c>
       <c r="O8" t="n">
-        <v>2604.874578707245</v>
+        <v>3088.97066285652</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3656.451367492762</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>3298.961952619012</v>
       </c>
       <c r="W8" t="n">
-        <v>2547.718225648527</v>
+        <v>2902.570602919359</v>
       </c>
       <c r="X8" t="n">
-        <v>2135.998226816274</v>
+        <v>2490.850604087106</v>
       </c>
       <c r="Y8" t="n">
-        <v>1730.660956771164</v>
+        <v>2085.513334041997</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.7322658463394</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C10" t="n">
-        <v>515.7322658463394</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D10" t="n">
-        <v>515.7322658463394</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E10" t="n">
-        <v>515.7322658463394</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F10" t="n">
-        <v>364.5018564693964</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G10" t="n">
-        <v>198.2448867636286</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S10" t="n">
-        <v>2064.726598204046</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T10" t="n">
-        <v>1821.387250429946</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U10" t="n">
-        <v>1541.20280193025</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.491334538279</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W10" t="n">
-        <v>984.6389307107922</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0750341565973</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.7322658463394</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1330.618908925625</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="C11" t="n">
-        <v>903.7181789389251</v>
+        <v>2054.897308952186</v>
       </c>
       <c r="D11" t="n">
-        <v>480.4255581239254</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E11" t="n">
-        <v>54.44861827178296</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>780.5035664744436</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>376.1645040638922</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K11" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1370.524631974099</v>
       </c>
       <c r="M11" t="n">
-        <v>1402.051920498411</v>
+        <v>2339.439185505946</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.853571611725</v>
+        <v>3308.353739037792</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T11" t="n">
-        <v>2501.505342633781</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="U11" t="n">
-        <v>2501.505342633781</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="V11" t="n">
-        <v>2501.505342633781</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="W11" t="n">
-        <v>2105.113992934128</v>
+        <v>3718.703672107778</v>
       </c>
       <c r="X11" t="n">
-        <v>2105.113992934128</v>
+        <v>3306.983673275525</v>
       </c>
       <c r="Y11" t="n">
-        <v>1750.467273217155</v>
+        <v>2901.646403230416</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>1505.579860189173</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>1505.579860189173</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1505.579860189173</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1505.579860189173</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>130.402627966507</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>78.296125537927</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>78.296125537927</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>78.296125537927</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1638.89036984892</v>
+        <v>2183.92966041292</v>
       </c>
       <c r="C14" t="n">
-        <v>1309.888802345077</v>
+        <v>1757.02893042622</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.888802345077</v>
+        <v>1333.736309611221</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>202.2074720625679</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1131.832519681845</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>2100.747073213691</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>3069.661626745538</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="U14" t="n">
-        <v>2464.07600418556</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="V14" t="n">
-        <v>2464.07600418556</v>
+        <v>3557.3168620226</v>
       </c>
       <c r="W14" t="n">
-        <v>2464.07600418556</v>
+        <v>3420.835293581812</v>
       </c>
       <c r="X14" t="n">
-        <v>2464.07600418556</v>
+        <v>3009.11529474956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2058.738734140451</v>
+        <v>2603.77802470445</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I15" t="n">
-        <v>61.8952612336948</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J15" t="n">
-        <v>333.5927505132859</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K15" t="n">
-        <v>333.5927505132859</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L15" t="n">
-        <v>333.5927505132859</v>
+        <v>78.296125537927</v>
       </c>
       <c r="M15" t="n">
-        <v>1007.3944016266</v>
+        <v>918.0692025865901</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.196052739914</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O15" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P15" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894967</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>1125.089101572744</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1019.226866224298</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>847.2543031032136</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9375302299843</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1785.357631525569</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1510.505227698082</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1435.735603246621</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.392834936363</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730672</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3677.717757844826</v>
+        <v>3901.026184387725</v>
       </c>
       <c r="C22" t="n">
-        <v>3677.717757844826</v>
+        <v>3729.053621266641</v>
       </c>
       <c r="D22" t="n">
-        <v>3677.717757844826</v>
+        <v>3565.736848393412</v>
       </c>
       <c r="E22" t="n">
-        <v>3511.50955199768</v>
+        <v>3399.528642546265</v>
       </c>
       <c r="F22" t="n">
-        <v>3339.64777777224</v>
+        <v>3227.666868320826</v>
       </c>
       <c r="G22" t="n">
-        <v>3173.390808066472</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H22" t="n">
-        <v>3029.594539574627</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036462</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.476826536767</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V22" t="n">
-        <v>4421.476826536767</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="W22" t="n">
-        <v>4146.624422709279</v>
+        <v>4560.098817964244</v>
       </c>
       <c r="X22" t="n">
-        <v>3904.060526155085</v>
+        <v>4317.534921410049</v>
       </c>
       <c r="Y22" t="n">
-        <v>3677.717757844826</v>
+        <v>4091.192153099791</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,22 +6071,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1060.971740130866</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="C25" t="n">
-        <v>913.7427045492574</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>750.4259316760281</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>584.2177258288816</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.48047715319</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="X25" t="n">
-        <v>1477.48047715319</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="Y25" t="n">
-        <v>1251.137708842932</v>
+        <v>3845.931202281451</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1125.089101572745</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V28" t="n">
-        <v>2002.531292319261</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C30" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D30" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E30" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F30" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T30" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U30" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V30" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W30" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X30" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3100.979612584067</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3100.979612584067</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3100.979612584067</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>3100.979612584067</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>456.2068044646694</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1171.715112440168</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>2101.340160059445</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>4553.23975439976</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>4278.387350572273</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>4278.387350572273</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6938,28 +6940,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7187,37 +7189,37 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1022.167063056836</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>850.1944999357522</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7363,19 +7365,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2047.637599140747</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1765.926131748776</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1491.073727921289</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1248.509831367094</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.167063056836</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>458.7876806823343</v>
+        <v>2281.509294027805</v>
       </c>
       <c r="C41" t="n">
-        <v>458.7876806823343</v>
+        <v>1854.608564041105</v>
       </c>
       <c r="D41" t="n">
-        <v>458.7876806823343</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>780.5035664744436</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>376.1645040638922</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>2945.750280220897</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>3088.97066285652</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>3518.414927196697</v>
       </c>
       <c r="X41" t="n">
-        <v>973.1823756976778</v>
+        <v>3106.694928364444</v>
       </c>
       <c r="Y41" t="n">
-        <v>567.8451056525681</v>
+        <v>2701.357658319335</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="L42" t="n">
-        <v>728.2502693850971</v>
+        <v>78.296125537927</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>78.296125537927</v>
       </c>
       <c r="N42" t="n">
-        <v>728.2502693850971</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O42" t="n">
-        <v>1402.051920498411</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>302.375191087591</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>139.0584182143617</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>78.296125537927</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>78.296125537927</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.701408840427</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>147.9967413610381</v>
+        <v>2112.355847784863</v>
       </c>
       <c r="C44" t="n">
-        <v>147.9967413610381</v>
+        <v>1685.455117798163</v>
       </c>
       <c r="D44" t="n">
-        <v>54.44861827178296</v>
+        <v>1262.162496983163</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>836.1855571310207</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L44" t="n">
-        <v>1090.853728201993</v>
+        <v>1527.105258827605</v>
       </c>
       <c r="M44" t="n">
-        <v>1090.853728201993</v>
+        <v>1527.105258827605</v>
       </c>
       <c r="N44" t="n">
-        <v>1090.853728201993</v>
+        <v>2496.019812359452</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.987448089748</v>
+        <v>3341.164462510264</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>3341.164462510264</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014447</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.80627689635</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.43898276949</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3589.513411814124</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3331.158502410536</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>2973.669087536786</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>2943.924210908645</v>
       </c>
       <c r="X44" t="n">
-        <v>973.1823756976778</v>
+        <v>2532.204212076393</v>
       </c>
       <c r="Y44" t="n">
-        <v>567.8451056525681</v>
+        <v>2532.204212076393</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L45" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="M45" t="n">
-        <v>728.2502693850971</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="N45" t="n">
-        <v>728.2502693850971</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.334597738979</v>
+        <v>1558.262330117738</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>770.5537484426259</v>
+        <v>629.5982529001135</v>
       </c>
       <c r="C46" t="n">
-        <v>770.5537484426259</v>
+        <v>457.6256897790295</v>
       </c>
       <c r="D46" t="n">
-        <v>770.5537484426259</v>
+        <v>457.6256897790295</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>291.417483931883</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>119.5557097064434</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>78.296125537927</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>78.296125537927</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.296125537927</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T46" t="n">
-        <v>1991.522297910811</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.337849411115</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="V46" t="n">
-        <v>1429.626382019144</v>
+        <v>1563.523290304119</v>
       </c>
       <c r="W46" t="n">
-        <v>1429.626382019144</v>
+        <v>1288.670886476632</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.06248546495</v>
+        <v>1046.106989922437</v>
       </c>
       <c r="Y46" t="n">
-        <v>960.7197171546916</v>
+        <v>819.7642216121792</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>688.8730270346301</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8058,19 +8060,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
-        <v>573.0719431554102</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8219,22 +8221,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>680.747503782256</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>596.212958852598</v>
       </c>
       <c r="L6" t="n">
-        <v>502.225283590884</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8313,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>570.1292544266475</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>1010.661660202478</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8538,13 +8540,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>1001.798349736416</v>
       </c>
       <c r="N9" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>871.4275231047101</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O11" t="n">
-        <v>571.7556129878624</v>
+        <v>649.9692804252743</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>160.9275770823255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O14" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>871.352413894816</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O15" t="n">
-        <v>124.102077628965</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>702.6160445827084</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>697.8614369098437</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9495,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>426.1551116948253</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,13 +9889,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>280.9771495655156</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>386.8988393430016</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10835,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -11063,25 +11065,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O41" t="n">
-        <v>690.4993855958451</v>
+        <v>182.0580125233197</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>788.5797351403635</v>
       </c>
       <c r="P42" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>779.0199467903797</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058534</v>
       </c>
       <c r="O44" t="n">
-        <v>425.4048178285041</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11376,22 +11378,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>488.9136355342237</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>353.8126856499787</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.17657788518846</v>
+        <v>344.2759167079421</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22708,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>123.7474116818788</v>
+        <v>65.01789851058567</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>36.06927321516434</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>162.4462602346809</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22996,13 +22998,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.53666410832426</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>112.7863719693832</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23075,13 +23077,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>219.4618751414414</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.42505120001169</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>198.2858574619702</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.18364482485538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>96.92017085802735</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23549,16 +23551,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>257.3106834462773</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>166.1163293817064</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>16.93792262753468</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.847704847762174</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>24.49609226408037</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>27.77629167419997</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>113.0089626044152</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24850,13 +24852,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.18544517283162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>154.4649003340604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>44.65524375327115</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.6830299280833</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>198.28585746197</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>326.4470527484872</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>362.9800083407976</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>31.46878979548984</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>123.7474116818789</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490763.94293329</v>
+        <v>440775.8052425661</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490763.94293329</v>
+        <v>610567.4974401331</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490763.94293329</v>
+        <v>610567.4974401334</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490763.94293329</v>
+        <v>610567.4974401332</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490763.9429332901</v>
+        <v>610567.4974401334</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731170.2307177772</v>
+        <v>731170.2307177773</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731170.2307177773</v>
+        <v>731170.2307177772</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731170.2307177773</v>
+        <v>731170.2307177772</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490763.9429332901</v>
+        <v>610567.4974401332</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490763.9429332901</v>
+        <v>610567.4974401335</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188623.3958016123</v>
+        <v>169412.1915076495</v>
       </c>
       <c r="C2" t="n">
-        <v>188623.3958016122</v>
+        <v>234665.7303853419</v>
       </c>
       <c r="D2" t="n">
-        <v>188623.3958016122</v>
+        <v>234665.730385342</v>
       </c>
       <c r="E2" t="n">
-        <v>188623.3958016122</v>
+        <v>234665.7303853419</v>
       </c>
       <c r="F2" t="n">
-        <v>188623.3958016122</v>
+        <v>234665.7303853419</v>
       </c>
       <c r="G2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="H2" t="n">
-        <v>281015.2015687238</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="I2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="J2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="K2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="L2" t="n">
         <v>281015.2015687237</v>
@@ -26347,13 +26349,13 @@
         <v>281015.2015687237</v>
       </c>
       <c r="N2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="O2" t="n">
-        <v>188623.3958016122</v>
+        <v>234665.7303853419</v>
       </c>
       <c r="P2" t="n">
-        <v>188623.3958016121</v>
+        <v>234665.7303853419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029677</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.07044717239</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621308</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19722.71048820158</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="C4" t="n">
-        <v>19722.71048820159</v>
+        <v>24561.36007714575</v>
       </c>
       <c r="D4" t="n">
-        <v>19722.71048820159</v>
+        <v>24561.36007714574</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820159</v>
+        <v>24561.36007714574</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820158</v>
+        <v>24561.36007714574</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26442,7 +26444,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26451,13 +26453,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591149</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820159</v>
+        <v>24561.36007714574</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820159</v>
+        <v>24561.36007714574</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882452</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.65540882452</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.05540882452</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134195.1683368284</v>
+        <v>-102142.5726682259</v>
       </c>
       <c r="C6" t="n">
-        <v>93892.13542685557</v>
+        <v>-19517.17130359607</v>
       </c>
       <c r="D6" t="n">
-        <v>93892.13542685554</v>
+        <v>116971.7148993717</v>
       </c>
       <c r="E6" t="n">
-        <v>127519.7354268556</v>
+        <v>150599.3148993716</v>
       </c>
       <c r="F6" t="n">
-        <v>127519.7354268556</v>
+        <v>150599.3148993716</v>
       </c>
       <c r="G6" t="n">
-        <v>9881.731514196246</v>
+        <v>91584.78187721004</v>
       </c>
       <c r="H6" t="n">
-        <v>173832.8523243826</v>
+        <v>173832.8523243825</v>
       </c>
       <c r="I6" t="n">
-        <v>173832.8523243824</v>
+        <v>173832.8523243825</v>
       </c>
       <c r="J6" t="n">
-        <v>-4244.076164397251</v>
+        <v>28299.18238956601</v>
       </c>
       <c r="K6" t="n">
-        <v>173832.8523243824</v>
+        <v>65101.62666225171</v>
       </c>
       <c r="L6" t="n">
         <v>173832.8523243825</v>
@@ -26555,13 +26557,13 @@
         <v>173832.8523243825</v>
       </c>
       <c r="N6" t="n">
-        <v>173832.8523243824</v>
+        <v>173832.8523243825</v>
       </c>
       <c r="O6" t="n">
-        <v>127519.7354268555</v>
+        <v>150599.3148993716</v>
       </c>
       <c r="P6" t="n">
-        <v>127519.7354268555</v>
+        <v>150599.3148993716</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084935</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487691</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084936</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084935</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487691</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>653.1084262398208</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>643.1721419720246</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>573.8137250192647</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>534.3646536318382</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>973.3820373680319</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N9" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>848.2556333824879</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O11" t="n">
-        <v>534.3646536318383</v>
+        <v>612.5783210692501</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>125.1629762875161</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O14" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>848.255633382488</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O15" t="n">
-        <v>100.9301879067428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>666.851443787899</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>659.5493944772209</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>404.3842704899966</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,13 +36609,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>357.4788798574151</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O41" t="n">
-        <v>653.1084262398209</v>
+        <v>144.6670531672956</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>765.4078454181413</v>
       </c>
       <c r="P42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>740.7079043577568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>978.7015692240875</v>
       </c>
       <c r="O44" t="n">
-        <v>388.01385847248</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>465.7417458120015</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>332.04184444515</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754327.8394280799</v>
+        <v>752320.1773232886</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12049526.89607446</v>
+        <v>12157779.51246667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2713959.118571167</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7584365.599403855</v>
+        <v>7567468.43689442</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>56.01975507850369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>115.7464314516011</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>97.49144062231181</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,16 +867,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>213.8764542074657</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,16 +904,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>296.9015824647267</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -949,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>245.1565386092493</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>167.8164790129221</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429417</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>90.48665126827005</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>308.0865680231105</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>138.9847183011437</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>194.1415787406864</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>230.6230460551289</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>209.3371091232755</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>135.1167527563793</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>147.6564773811755</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>220.7738371448797</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3991,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>29.44742786185904</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>40.84698832683126</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.0056192934837</v>
+        <v>1657.418872161465</v>
       </c>
       <c r="C2" t="n">
-        <v>561.1048893067839</v>
+        <v>1657.418872161465</v>
       </c>
       <c r="D2" t="n">
-        <v>561.1048893067839</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="E2" t="n">
-        <v>561.1048893067839</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F2" t="n">
-        <v>135.9807074961841</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336855</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>2929.479018370021</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>2894.324505330358</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630123</v>
+        <v>2482.604506498105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.853983585014</v>
+        <v>2077.267236452995</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608812</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N3" t="n">
-        <v>1853.185855629757</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1027.91077931376</v>
+        <v>486.1427916045499</v>
       </c>
       <c r="C4" t="n">
-        <v>855.9382161926764</v>
+        <v>314.1702284834658</v>
       </c>
       <c r="D4" t="n">
-        <v>692.6214433194471</v>
+        <v>314.1702284834658</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>314.1702284834658</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>314.1702284834658</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.872639149549</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.872639149549</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U4" t="n">
-        <v>2177.872639149549</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V4" t="n">
-        <v>1961.835816717766</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W4" t="n">
-        <v>1686.983412890279</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.419516336084</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y4" t="n">
-        <v>1218.076748025826</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2516.694910195414</v>
+        <v>1661.227630159809</v>
       </c>
       <c r="C5" t="n">
-        <v>2089.794180208714</v>
+        <v>1234.326900173109</v>
       </c>
       <c r="D5" t="n">
-        <v>1666.501559393715</v>
+        <v>811.0342793581094</v>
       </c>
       <c r="E5" t="n">
-        <v>1240.524619541572</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="F5" t="n">
-        <v>815.4004377309723</v>
+        <v>511.1336910099006</v>
       </c>
       <c r="G5" t="n">
-        <v>411.061375320421</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>78.296125537927</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>78.296125537927</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1007.921173157204</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M5" t="n">
-        <v>1976.83572668905</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N5" t="n">
-        <v>1976.83572668905</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O5" t="n">
-        <v>2821.980376839862</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P5" t="n">
-        <v>3458.720797392167</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q5" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3810.43898276949</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3589.513411814124</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3589.513411814124</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V5" t="n">
-        <v>3589.513411814124</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="W5" t="n">
-        <v>3589.513411814124</v>
+        <v>2478.284899037171</v>
       </c>
       <c r="X5" t="n">
-        <v>3341.880544532054</v>
+        <v>2066.564900204919</v>
       </c>
       <c r="Y5" t="n">
-        <v>2936.543274486944</v>
+        <v>1661.227630159809</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>349.9936148175181</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K6" t="n">
-        <v>918.0692025865901</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L6" t="n">
-        <v>918.0692025865901</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="M6" t="n">
-        <v>918.0692025865901</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N6" t="n">
-        <v>1886.983756118437</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O6" t="n">
-        <v>1886.983756118437</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.375191087591</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C7" t="n">
-        <v>130.402627966507</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D7" t="n">
-        <v>130.402627966507</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E7" t="n">
-        <v>130.402627966507</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="F7" t="n">
-        <v>130.402627966507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G7" t="n">
-        <v>130.402627966507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H7" t="n">
-        <v>130.402627966507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2041.535492157363</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1798.196144383263</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U7" t="n">
-        <v>1518.011695883568</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V7" t="n">
-        <v>1236.300228491596</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W7" t="n">
-        <v>961.4478246641095</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X7" t="n">
-        <v>718.8839281099146</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y7" t="n">
-        <v>492.5411597996566</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1665.664969750467</v>
+        <v>1754.238671402814</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.764239763767</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="D8" t="n">
-        <v>815.4716189487669</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E8" t="n">
-        <v>389.4946790966245</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F8" t="n">
-        <v>78.296125537927</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G8" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>440.8995843548225</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>1156.407892330322</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L8" t="n">
-        <v>1156.407892330322</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M8" t="n">
-        <v>2125.322445862168</v>
+        <v>695.6437112106956</v>
       </c>
       <c r="N8" t="n">
-        <v>3088.97066285652</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O8" t="n">
-        <v>3088.97066285652</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P8" t="n">
-        <v>3797.249942014447</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q8" t="n">
-        <v>3797.249942014447</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3914.80627689635</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>3914.80627689635</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U8" t="n">
-        <v>3656.451367492762</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V8" t="n">
-        <v>3298.961952619012</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W8" t="n">
-        <v>2902.570602919359</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X8" t="n">
-        <v>2490.850604087106</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y8" t="n">
-        <v>2085.513334041997</v>
+        <v>1845.639329249551</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>78.296125537927</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>78.296125537927</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="L9" t="n">
-        <v>78.296125537927</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="M9" t="n">
-        <v>1047.210679069774</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="N9" t="n">
-        <v>1047.210679069774</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="O9" t="n">
-        <v>1886.983756118437</v>
+        <v>618.2228839373497</v>
       </c>
       <c r="P9" t="n">
-        <v>1886.983756118437</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q9" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1161.477248062164</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C10" t="n">
-        <v>989.5046849410799</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D10" t="n">
-        <v>826.1879120678506</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E10" t="n">
-        <v>659.9797062207041</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F10" t="n">
-        <v>488.1179319952645</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>321.8609622894967</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2258.709152951055</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T10" t="n">
-        <v>2258.709152951055</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U10" t="n">
-        <v>2258.709152951055</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V10" t="n">
-        <v>2095.402285466169</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W10" t="n">
-        <v>1820.549881638682</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X10" t="n">
-        <v>1577.985985084488</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y10" t="n">
-        <v>1351.64321677423</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2481.798038938885</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="C11" t="n">
-        <v>2054.897308952186</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="D11" t="n">
-        <v>1631.604688137186</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.627748285043</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F11" t="n">
-        <v>780.5035664744436</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G11" t="n">
-        <v>376.1645040638922</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H11" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>440.8995843548225</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>440.8995843548225</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>1370.524631974099</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M11" t="n">
-        <v>2339.439185505946</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N11" t="n">
-        <v>3308.353739037792</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O11" t="n">
-        <v>3914.80627689635</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P11" t="n">
-        <v>3914.80627689635</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T11" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U11" t="n">
-        <v>3914.80627689635</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V11" t="n">
-        <v>3914.80627689635</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W11" t="n">
-        <v>3718.703672107778</v>
+        <v>2582.652193164031</v>
       </c>
       <c r="X11" t="n">
-        <v>3306.983673275525</v>
+        <v>2170.932194331778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2901.646403230416</v>
+        <v>1765.594924286669</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K12" t="n">
-        <v>668.7810521062665</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L12" t="n">
-        <v>1505.579860189173</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M12" t="n">
-        <v>1505.579860189173</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N12" t="n">
-        <v>1505.579860189173</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="O12" t="n">
-        <v>1505.579860189173</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>302.375191087591</v>
+        <v>581.9403005364904</v>
       </c>
       <c r="C13" t="n">
-        <v>130.402627966507</v>
+        <v>409.9677374154064</v>
       </c>
       <c r="D13" t="n">
-        <v>78.296125537927</v>
+        <v>409.9677374154064</v>
       </c>
       <c r="E13" t="n">
-        <v>78.296125537927</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2041.535492157363</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.196144383263</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U13" t="n">
-        <v>1518.011695883568</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V13" t="n">
-        <v>1236.300228491596</v>
+        <v>1325.69936922843</v>
       </c>
       <c r="W13" t="n">
-        <v>961.4478246641095</v>
+        <v>1050.846965400943</v>
       </c>
       <c r="X13" t="n">
-        <v>718.8839281099146</v>
+        <v>808.2830688467484</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.5411597996566</v>
+        <v>581.9403005364904</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2183.92966041292</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C14" t="n">
-        <v>1757.02893042622</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="D14" t="n">
-        <v>1333.736309611221</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="E14" t="n">
-        <v>907.7593697590781</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="F14" t="n">
-        <v>482.6351879484783</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G14" t="n">
-        <v>78.296125537927</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H14" t="n">
-        <v>78.296125537927</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>202.2074720625679</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1131.832519681845</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M14" t="n">
-        <v>2100.747073213691</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N14" t="n">
-        <v>3069.661626745538</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O14" t="n">
-        <v>3914.80627689635</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3914.80627689635</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3914.80627689635</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>3914.80627689635</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U14" t="n">
-        <v>3914.80627689635</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V14" t="n">
-        <v>3557.3168620226</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W14" t="n">
-        <v>3420.835293581812</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X14" t="n">
-        <v>3009.11529474956</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y14" t="n">
-        <v>2603.77802470445</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>78.296125537927</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="K15" t="n">
-        <v>78.296125537927</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="L15" t="n">
-        <v>78.296125537927</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="M15" t="n">
-        <v>918.0692025865901</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="N15" t="n">
-        <v>1886.983756118437</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O15" t="n">
-        <v>1886.983756118437</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P15" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1161.477248062164</v>
+        <v>343.015436205311</v>
       </c>
       <c r="C16" t="n">
-        <v>989.5046849410799</v>
+        <v>171.042873084227</v>
       </c>
       <c r="D16" t="n">
-        <v>826.1879120678506</v>
+        <v>171.042873084227</v>
       </c>
       <c r="E16" t="n">
-        <v>659.9797062207041</v>
+        <v>171.042873084227</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1179319952645</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>321.8609622894967</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2258.709152951055</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T16" t="n">
-        <v>2258.709152951055</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U16" t="n">
-        <v>2258.709152951055</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V16" t="n">
-        <v>2095.402285466169</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W16" t="n">
-        <v>1820.549881638682</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.985985084488</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y16" t="n">
-        <v>1351.64321677423</v>
+        <v>533.1814049173767</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1125.089101572744</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991802</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478503</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1833.368380730672</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.65448214973</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636431</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787243</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3901.026184387725</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3729.053621266641</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3565.736848393412</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3399.528642546265</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3227.666868320826</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4834.951221791731</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4834.951221791731</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4560.098817964244</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4317.534921410049</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4091.192153099791</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281451</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831968</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>3845.931202281451</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>3845.931202281451</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>3845.931202281451</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402535</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281451</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408221</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291426</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>4834.951221791731</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>4834.951221791731</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>4676.976398979054</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.412502424859</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710918</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710918</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818556</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>456.2068044646694</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1171.715112440168</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2101.340160059445</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3105.626261478503</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478503</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629315</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7016,13 +7016,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
         <v>821.6753975134684</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710918</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818556</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2281.509294027805</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1854.608564041105</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>1631.604688137186</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.627748285043</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5035664744436</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>376.1645040638922</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>78.296125537927</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>78.296125537927</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.921173157204</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M41" t="n">
-        <v>1976.83572668905</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N41" t="n">
-        <v>2945.750280220897</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O41" t="n">
-        <v>3088.97066285652</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
-        <v>3797.249942014447</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>3797.249942014447</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3914.80627689635</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="W41" t="n">
-        <v>3518.414927196697</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>3106.694928364444</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>2701.357658319335</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>78.296125537927</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K42" t="n">
-        <v>78.296125537927</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L42" t="n">
-        <v>78.296125537927</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M42" t="n">
-        <v>78.296125537927</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N42" t="n">
-        <v>1047.210679069774</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
-        <v>1804.964446033734</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1804.964446033734</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1804.964446033734</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>302.375191087591</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>302.375191087591</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>139.0584182143617</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>78.296125537927</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2041.535492157363</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1798.196144383263</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.011695883568</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1236.300228491596</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>961.4478246641095</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>718.8839281099146</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>492.5411597996566</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.355847784863</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C44" t="n">
-        <v>1685.455117798163</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D44" t="n">
-        <v>1262.162496983163</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E44" t="n">
-        <v>836.1855571310207</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F44" t="n">
-        <v>411.061375320421</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G44" t="n">
-        <v>411.061375320421</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>113.1929967944558</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>78.296125537927</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>793.804433513426</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1527.105258827605</v>
+        <v>1403.922990368623</v>
       </c>
       <c r="M44" t="n">
-        <v>1527.105258827605</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="N44" t="n">
-        <v>2496.019812359452</v>
+        <v>2293.657737486026</v>
       </c>
       <c r="O44" t="n">
-        <v>3341.164462510264</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P44" t="n">
-        <v>3341.164462510264</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3797.249942014447</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3914.80627689635</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3810.43898276949</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3589.513411814124</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3331.158502410536</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2973.669087536786</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2943.924210908645</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X44" t="n">
-        <v>2532.204212076393</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y44" t="n">
-        <v>2532.204212076393</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>78.296125537927</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>78.296125537927</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>668.7810521062665</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>668.7810521062665</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="M45" t="n">
-        <v>668.7810521062665</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="N45" t="n">
-        <v>668.7810521062665</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O45" t="n">
-        <v>1558.262330117738</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P45" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>629.5982529001135</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C46" t="n">
-        <v>457.6256897790295</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D46" t="n">
-        <v>457.6256897790295</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="E46" t="n">
-        <v>291.417483931883</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>119.5557097064434</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>78.296125537927</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.57410547019</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.23475769609</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.23475769609</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V46" t="n">
-        <v>1563.523290304119</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W46" t="n">
-        <v>1288.670886476632</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X46" t="n">
-        <v>1046.106989922437</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y46" t="n">
-        <v>819.7642216121792</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>129.9735969606223</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>180.7888499740232</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>977.3272420480539</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M5" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,7 +8233,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>680.747503782256</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8297,22 +8297,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>596.212958852598</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>852.180037343056</v>
       </c>
       <c r="N6" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>1016.132832123519</v>
+        <v>301.2115609307244</v>
       </c>
       <c r="N8" t="n">
-        <v>1010.661660202478</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>1001.798349736416</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>871.4275231047101</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M11" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>649.9692804252743</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>867.7664080100944</v>
@@ -8783,10 +8783,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>273.92387204262</v>
       </c>
       <c r="P12" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8929,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>160.9275770823255</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M14" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9005,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>225.6703421419597</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>871.352413894816</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>702.6160445827084</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>697.8614369098437</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>657.7881306933709</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9652,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>400.4816372459001</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10193,13 +10193,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>152.7047407943309</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>386.8988393430016</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10664,16 +10664,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>474.5964003263119</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M41" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>182.0580125233197</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>80.44068719432418</v>
       </c>
       <c r="N42" t="n">
-        <v>1000.044597437629</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>788.5797351403635</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>779.0199467903797</v>
+        <v>294.7902911532373</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>1015.981192058534</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>353.8126856499787</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2759167079421</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>276.6810047510554</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>67.10295938639837</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>65.01789851058567</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,16 +22792,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>124.8155879888943</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>162.4462602346809</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>2.326677470263036</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>325.1632293803447</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.7863719693832</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6651623474711</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>198.2858574619702</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>48.27130666292248</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>211.5358308692182</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>257.3106834462773</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>16.93792262753468</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>68.15019490184626</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>198.28585746197</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25687,10 +25687,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>175.2680883882403</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>104.3914540390047</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>362.9800083407976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.1019186818112</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>123.7474116818789</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440775.8052425661</v>
+        <v>578423.791841789</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>610567.4974401331</v>
+        <v>578423.7918417893</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>610567.4974401334</v>
+        <v>578423.7918417893</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610567.4974401332</v>
+        <v>578423.7918417894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610567.4974401334</v>
+        <v>578423.7918417893</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731170.2307177773</v>
+        <v>731170.2307177772</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731170.2307177773</v>
+        <v>731170.2307177772</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610567.4974401332</v>
+        <v>578423.7918417893</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610567.4974401335</v>
+        <v>578423.7918417893</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169412.1915076495</v>
+        <v>222312.413707786</v>
       </c>
       <c r="C2" t="n">
-        <v>234665.7303853419</v>
+        <v>222312.413707786</v>
       </c>
       <c r="D2" t="n">
-        <v>234665.730385342</v>
+        <v>222312.413707786</v>
       </c>
       <c r="E2" t="n">
-        <v>234665.7303853419</v>
+        <v>222312.413707786</v>
       </c>
       <c r="F2" t="n">
-        <v>234665.7303853419</v>
+        <v>222312.413707786</v>
       </c>
       <c r="G2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687238</v>
       </c>
       <c r="H2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="I2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687235</v>
       </c>
       <c r="J2" t="n">
         <v>281015.2015687237</v>
@@ -26352,10 +26352,10 @@
         <v>281015.2015687237</v>
       </c>
       <c r="O2" t="n">
-        <v>234665.7303853419</v>
+        <v>222312.413707786</v>
       </c>
       <c r="P2" t="n">
-        <v>234665.7303853419</v>
+        <v>222312.413707786</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
-        <v>136488.8862029677</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82248.07044717239</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
-        <v>108731.2256621308</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17703.77972371005</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="C4" t="n">
-        <v>24561.36007714575</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="D4" t="n">
-        <v>24561.36007714574</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="E4" t="n">
-        <v>24561.36007714574</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="F4" t="n">
-        <v>24561.36007714574</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26444,22 +26444,22 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.28705591149</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
+        <v>29432.28705591151</v>
+      </c>
+      <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
-      <c r="N4" t="n">
-        <v>29432.28705591149</v>
-      </c>
       <c r="O4" t="n">
-        <v>24561.36007714574</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="P4" t="n">
-        <v>24561.36007714574</v>
+        <v>23263.13375555789</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>93132.65540882452</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>93132.65540882452</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>59505.05540882452</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102142.5726682259</v>
+        <v>-190747.5619047795</v>
       </c>
       <c r="C6" t="n">
-        <v>-19517.17130359607</v>
+        <v>110434.8397701957</v>
       </c>
       <c r="D6" t="n">
-        <v>116971.7148993717</v>
+        <v>110434.8397701956</v>
       </c>
       <c r="E6" t="n">
-        <v>150599.3148993716</v>
+        <v>144062.4397701957</v>
       </c>
       <c r="F6" t="n">
-        <v>150599.3148993716</v>
+        <v>144062.4397701957</v>
       </c>
       <c r="G6" t="n">
-        <v>91584.78187721004</v>
+        <v>69612.54188057857</v>
       </c>
       <c r="H6" t="n">
-        <v>173832.8523243825</v>
+        <v>173781.8216621982</v>
       </c>
       <c r="I6" t="n">
-        <v>173832.8523243825</v>
+        <v>173781.8216621981</v>
       </c>
       <c r="J6" t="n">
-        <v>28299.18238956601</v>
+        <v>-61363.38861536315</v>
       </c>
       <c r="K6" t="n">
-        <v>65101.62666225171</v>
+        <v>173781.8216621982</v>
       </c>
       <c r="L6" t="n">
-        <v>173832.8523243825</v>
+        <v>173781.8216621982</v>
       </c>
       <c r="M6" t="n">
-        <v>173832.8523243825</v>
+        <v>173781.8216621982</v>
       </c>
       <c r="N6" t="n">
-        <v>173832.8523243825</v>
+        <v>173781.8216621982</v>
       </c>
       <c r="O6" t="n">
-        <v>150599.3148993716</v>
+        <v>144062.4397701957</v>
       </c>
       <c r="P6" t="n">
-        <v>150599.3148993716</v>
+        <v>144062.4397701956</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>422.4737561084935</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>300.0823483487691</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084936</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084935</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>300.0823483487691</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>92.69397412617626</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>158.2737632597936</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>939.015199615431</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M5" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>643.1721419720246</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35017,22 +35017,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>573.8137250192647</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>829.083256830728</v>
       </c>
       <c r="N6" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>978.7015692240875</v>
+        <v>263.7802980312926</v>
       </c>
       <c r="N8" t="n">
-        <v>973.3820373680319</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>848.2556333824879</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M11" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>612.5783210692501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>845.2513212958648</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="P12" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>125.1629762875161</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M14" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>848.255633382488</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>666.851443787899</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>659.5493944772209</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>634.6913501810429</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36372,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>357.4788798574151</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M41" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>144.6670531672956</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>57.34390668199621</v>
       </c>
       <c r="N42" t="n">
-        <v>978.7015692240875</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>765.4078454181413</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>740.7079043577568</v>
+        <v>256.4782487206143</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>978.7015692240875</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>332.04184444515</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
